--- a/o002_NamedCellControl.xlsx
+++ b/o002_NamedCellControl.xlsx
@@ -10,14 +10,18 @@
     <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="test">Sheet2!$C$12:$D$12</definedName>
+    <definedName name="거래항목">Sheet2!$E$12:$H$12</definedName>
+    <definedName name="날찌">Sheet2!$C$12:$D$12</definedName>
+    <definedName name="번호">Sheet2!$B$12</definedName>
+    <definedName name="비고">Sheet2!$I$12:$J$12</definedName>
+    <definedName name="제목">Sheet2!$C$10:$J$11</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Cell</t>
   </si>
@@ -25,7 +29,19 @@
     <t>Hi There!</t>
   </si>
   <si>
-    <t>NamedCell</t>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>날찌</t>
+  </si>
+  <si>
+    <t>거래항목</t>
+  </si>
+  <si>
+    <t>비고</t>
   </si>
 </sst>
 </file>
@@ -91,10 +107,10 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,34 +409,51 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="2" t="n"/>
+    <row r="5" spans="1:9">
+      <c r="C5" s="3" t="n"/>
       <c r="H5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="3" t="s">
+    <row r="10" spans="1:9">
+      <c r="C10" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="C5:G8"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C10:J11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>

--- a/o002_NamedCellControl.xlsx
+++ b/o002_NamedCellControl.xlsx
@@ -10,18 +10,14 @@
     <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="거래항목">Sheet2!$E$12:$H$12</definedName>
-    <definedName name="날찌">Sheet2!$C$12:$D$12</definedName>
-    <definedName name="번호">Sheet2!$B$12</definedName>
-    <definedName name="비고">Sheet2!$I$12:$J$12</definedName>
-    <definedName name="제목">Sheet2!$C$10:$J$11</definedName>
+    <definedName name="test">Sheet2!$C$12:$D$12</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>Cell</t>
   </si>
@@ -29,19 +25,7 @@
     <t>Hi There!</t>
   </si>
   <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>번호</t>
-  </si>
-  <si>
-    <t>날찌</t>
-  </si>
-  <si>
-    <t>거래항목</t>
-  </si>
-  <si>
-    <t>비고</t>
+    <t>NamedCell</t>
   </si>
 </sst>
 </file>
@@ -107,10 +91,10 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,51 +393,34 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="C5" s="3" t="n"/>
+    <row r="5" spans="1:8">
+      <c r="C5" s="2" t="n"/>
       <c r="H5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="C10" s="2" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I12:J12"/>
+  <mergeCells count="2">
     <mergeCell ref="C5:G8"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="C10:J11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
